--- a/suppxls/Scen_demo_GAMScode_Vangelis.xlsx
+++ b/suppxls/Scen_demo_GAMScode_Vangelis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16825367-F91D-4E4F-9B24-9491CC023897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703FF160-A082-480B-BF09-E144B15A91A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="1410" windowWidth="20040" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8685" yWindow="1410" windowWidth="16170" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -22,18 +22,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Amit Kanudia</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{E5E7C326-8D7A-47C3-99BB-64BAE93DA7FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+24-02-2021
+This is only because DINS needs a process or commodity spec to work. This will not get attached to the attribute. Any valid process would work.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>Other_Indexes</t>
   </si>
   <si>
-    <t>~TFM_INS</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t xml:space="preserve">RFCmd_DD </t>
   </si>
   <si>
@@ -52,35 +81,44 @@
     <t>;</t>
   </si>
   <si>
-    <t>cb_p(r,p)=yes$gr_genmap(r,p,"CrossBorderTrade");</t>
-  </si>
-  <si>
     <t>embeddedCode Python:</t>
   </si>
   <si>
     <t>ncb_p = []</t>
   </si>
   <si>
-    <t>for r,p in gams.get("cb_p"):</t>
-  </si>
-  <si>
-    <t>gams.set("ncb_p",ncb_p)</t>
-  </si>
-  <si>
     <t>endEmbeddedCode ncb_p</t>
   </si>
   <si>
     <t>ACT_BND(R,T,P,S,'UP')$ncb_p(r,p) = EPS;</t>
   </si>
   <si>
-    <t>attribute</t>
+    <t>*--</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>pset_pn</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>cb_p(r,p)=yes$gr_genmap(r,p,'CrossBorderTrade');</t>
+  </si>
+  <si>
+    <t>for r,p in gams.get('cb_p'):</t>
+  </si>
+  <si>
+    <t>gams.set('ncb_p',ncb_p)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,19 +137,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,7 +175,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,219 +515,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
